--- a/target/test-classes/reads/data.xlsx
+++ b/target/test-classes/reads/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8895" windowHeight="3060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16080" windowHeight="4485"/>
   </bookViews>
   <sheets>
     <sheet name="guest" sheetId="1" r:id="rId1"/>
@@ -393,8 +393,8 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
